--- a/medicine/Mort/Douaire/Douaire.xlsx
+++ b/medicine/Mort/Douaire/Douaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le douaire, soit coutumier soit préfix (ou conventionnel), est un terme de droit ancien désignant la portion de biens que le mari réserve à son épouse dans le cas où celle-ci lui survivrait. La bénéficiaire est dite douairière. Le douaire est un élément fondamental du droit des gens mariés sous l'Ancien Régime.
 Le terme douaire est aujourd'hui toujours utilisé en anthropologie de la parenté pour désigner les biens donnés lors d'une alliance par le mari à son épouse.
